--- a/normativa/Anexos/L05T02C03/L05T02C03A04.27.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04.27.xlsx
@@ -4,22 +4,33 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="663" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 2" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="ANEXO 4.27.A" sheetId="4" r:id="rId2"/>
+    <sheet name="Anexo 4.27A" sheetId="11" r:id="rId2"/>
+    <sheet name="Anexo 4.27B" sheetId="6" r:id="rId3"/>
+    <sheet name="Anexo 4.27C" sheetId="7" r:id="rId4"/>
+    <sheet name="Anexo 4.27D" sheetId="8" r:id="rId5"/>
+    <sheet name="Anexo 4.27E" sheetId="9" r:id="rId6"/>
+    <sheet name="Anexo 4.27F" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'ANEXO 4.27.A'!$A$1:$H$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Anexo 4.27A'!$A$1:$I$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Anexo 4.27B'!$A$1:$S$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Anexo 4.27C'!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Anexo 4.27D'!$A$1:$G$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Anexo 4.27E'!$A$1:$H$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Anexo 4.27F'!$A$1:$H$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 2'!$A$1:$L$65</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Anexo 4.27F'!$1:$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="172">
   <si>
     <t>Contador General</t>
   </si>
@@ -178,21 +189,12 @@
     <t>Resultado (Utilidad o pérdida)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fideicomiso (1)*</t>
-  </si>
-  <si>
     <t>Cuentas de orden contingentes acreedoras</t>
   </si>
   <si>
     <t>Cuentas de orden acreedoras</t>
   </si>
   <si>
-    <t>Fideicomiso (4)*..+(n)</t>
-  </si>
-  <si>
-    <t>(*) Número único correlativo asignado a cada fideicomiso, compuesto por la sigla de la entidad seguida del número respectivo (Ej. BNB-001, BUN-025)</t>
-  </si>
-  <si>
     <t>PATRIMONIOS AUTÓNOMOS CONSTITUIDOS CON RECURSOS PRIVADOS</t>
   </si>
   <si>
@@ -217,22 +219,446 @@
     <t>(***) Importes que deben coincidir con los saldos reportados en los estados financieros.</t>
   </si>
   <si>
+    <t>REPORTE DE INFORMACIÓN RELACIONADA A FIDEICOMISOS</t>
+  </si>
+  <si>
+    <t>ENTIDAD:_______________________________________________</t>
+  </si>
+  <si>
+    <t>FECHA DE CORTE DE INFORMACIÓN: ____________________</t>
+  </si>
+  <si>
+    <t>DETALLE DEL FIDEICOMISO - EN BOLIVIANOS</t>
+  </si>
+  <si>
+    <t>CÓDIGO ÚNICO DE IDENTIFICACIÓN DEL FIDEICOMISO
+(1)</t>
+  </si>
+  <si>
+    <t>OBJETO DEL FIDEICOMISO</t>
+  </si>
+  <si>
+    <t>COMISIÓN GENERADA POR EL FIDEICOMISO</t>
+  </si>
+  <si>
+    <t>NÚMERO DEL CONTRATO DE FIDEICOMISO</t>
+  </si>
+  <si>
+    <t>IMPORTE 
+(2)</t>
+  </si>
+  <si>
+    <t>VARIACIÓN DEL CAPITAL FIDUCIARIO 
+(3)</t>
+  </si>
+  <si>
+    <t>ORIGEN DE FONDOS DE LA VARIACIÓN DE CAPITAL FIDUCIARIO</t>
+  </si>
+  <si>
+    <t>(1) Número único correlativo asignado a cada fideicomiso administrado, compuesto por la sigla de la entidad seguida del número respectivo (Ej. BNB-001, BUN-025)</t>
+  </si>
+  <si>
+    <t>(2) Importe del patrimonio del fideicomiso.</t>
+  </si>
+  <si>
+    <t>_________________________________</t>
+  </si>
+  <si>
+    <t>(Nombre y Cargo)</t>
+  </si>
+  <si>
+    <r>
+      <t>NOTA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> EL FIRMANTE DECLARA QUE LA INFORMACIÓN CONTENIDA EN EL PRESENTE REPORTE FUE EXTRAÍDA DE NUESTROS LIBROS Y HA SIDO VERIFICADA EN CUANTO A SU EXACTITUD E INTEGRIDAD.</t>
+    </r>
+  </si>
+  <si>
+    <t>DETALLE DEL FIDEICOMITENTE  - PERSONA NATURAL</t>
+  </si>
+  <si>
+    <t>PERSONA NATURAL</t>
+  </si>
+  <si>
+    <t>PERSONA JURÍDICA</t>
+  </si>
+  <si>
+    <t>NOMBRE COMPLETO
+(2)</t>
+  </si>
+  <si>
+    <t>NACIONALIDAD</t>
+  </si>
+  <si>
+    <t>PAÍS DE RESIDENCIA</t>
+  </si>
+  <si>
+    <t>DOCUMENTO DE IDENTIDAD 
+(3)</t>
+  </si>
+  <si>
+    <t>FECHA DE NACIMIENTO</t>
+  </si>
+  <si>
+    <t>ESTADO CIVIL</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL CÓNYUGE
+(4)</t>
+  </si>
+  <si>
+    <t>DOMICILIO PARTICULAR</t>
+  </si>
+  <si>
+    <t>DOMICILIO COMERCIAL</t>
+  </si>
+  <si>
+    <t>NÚMERO TELEFÓNICO</t>
+  </si>
+  <si>
+    <t>PROFESIÓN</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD ECONÓMICA U OCUPACIÓN</t>
+  </si>
+  <si>
+    <t>LUGAR DE TRABAJO</t>
+  </si>
+  <si>
+    <t>CARGO EN EL LUGAR DE TRABAJO</t>
+  </si>
+  <si>
+    <t>NIVEL DE INGRESOS
+(5)</t>
+  </si>
+  <si>
+    <t>FECHA DE INGRESO AL LUGAR DE TRABAJO</t>
+  </si>
+  <si>
+    <t>RAZÓN SOCIAL
+(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NÚMERO DE IDENTIFICACIÓN TRIBUTARIA </t>
+  </si>
+  <si>
+    <t>(2) Se debe consignar el Apellido paterno/Apellido materno/Nombres.</t>
+  </si>
+  <si>
+    <t>(3) Se debe consignar el número del documento de identidad seguido de su extensión. En caso de personas extranjeras, se debe consignar el número de documento de identificación del fideicomitente, que corresponda.</t>
+  </si>
+  <si>
+    <t>(4) Si en la columna Estado Civil registra "Casado(a)", entonces debe consignar el nombre del cónyuge.</t>
+  </si>
+  <si>
+    <t>(5) Se debe registrar el promedio de ingreso mensual del fideicomitente, expresado en moneda nacional.</t>
+  </si>
+  <si>
+    <t>__________________________</t>
+  </si>
+  <si>
+    <t>______________________</t>
+  </si>
+  <si>
+    <r>
+      <t>NOTA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> LOS FIRMANTES DECLARAMOS QUE LA INFORMACIÓN CONTENIDA EN EL PRESENTE REPORTE HA SIDO VERIFICADA EN CUANTO A SU EXACTITUD E INTEGRIDAD.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DETALLE DEL FIDEICOMITENTE (PERSONA JURÍDICA) </t>
+  </si>
+  <si>
+    <t>RAZÓN SOCIAL 
+(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NÚMERO DE IDENTIFICACIÓN TRIBUTARIA
+(2) </t>
+  </si>
+  <si>
+    <t>ACTIVIDAD PRINCIPAL</t>
+  </si>
+  <si>
+    <t>DOMICILIO PRINCIPAL</t>
+  </si>
+  <si>
+    <t>TELÉFONOS</t>
+  </si>
+  <si>
+    <t>NÚMERO DE DOCUMENTO DE CONSTITUCIÓN</t>
+  </si>
+  <si>
+    <t>______________________________</t>
+  </si>
+  <si>
+    <t>________________________________</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOTA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LOS FIRMANTES DECLARAMOS QUE LA INFORMACIÓN CONTENIDA EN EL PRESENTE REPORTE HA SIDO VERIFICADA EN CUANTO A SU EXACTITUD E INTEGRIDAD.</t>
+    </r>
+  </si>
+  <si>
+    <t>DETALLE DEL BENEFICIARIO  - PERSONA NATURAL</t>
+  </si>
+  <si>
+    <t>(2) Se deben consignar el Apellido paterno/Apellido materno/Nombres.</t>
+  </si>
+  <si>
+    <t>(3) Se debe consignar el número del documento de identidad seguido de su extensión. En caso de personas extranjeras, se debe consignar el número de documento de identificación del beneficiario, que corresponda.</t>
+  </si>
+  <si>
+    <r>
+      <t>DETALLE DEL BENEFICIARIO (PERSONA JURÍDICA)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>RAZÓN SOCIAL</t>
+  </si>
+  <si>
+    <t>___________________________________</t>
+  </si>
+  <si>
+    <t>DETALLE DE OPERACIONES DE FIDEICOMISO EN BOLIVIANOS</t>
+  </si>
+  <si>
+    <t>Fideicomiso (4)*</t>
+  </si>
+  <si>
+    <t>Fideicomiso (n...)*</t>
+  </si>
+  <si>
+    <t>Fondo de Garantía (FG)**</t>
+  </si>
+  <si>
+    <t>TOTAL***
+(1) + (2) + (3) + (4) + (FG) +...+(n)</t>
+  </si>
+  <si>
+    <t>871.00</t>
+  </si>
+  <si>
+    <t>872.00</t>
+  </si>
+  <si>
+    <t>873.00</t>
+  </si>
+  <si>
+    <t>874.00</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t>876.00</t>
+  </si>
+  <si>
+    <t>877.00</t>
+  </si>
+  <si>
+    <t>878.00</t>
+  </si>
+  <si>
+    <t>971.00</t>
+  </si>
+  <si>
+    <t>972.00</t>
+  </si>
+  <si>
+    <t>973.00</t>
+  </si>
+  <si>
+    <t>978.00</t>
+  </si>
+  <si>
+    <t>979.00</t>
+  </si>
+  <si>
+    <t>974.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresos </t>
+  </si>
+  <si>
+    <t>879.00</t>
+  </si>
+  <si>
+    <t>881.00</t>
+  </si>
+  <si>
+    <t>882.00</t>
+  </si>
+  <si>
+    <t>883.00</t>
+  </si>
+  <si>
+    <t>884.00</t>
+  </si>
+  <si>
+    <t>885.00</t>
+  </si>
+  <si>
+    <t>886.00</t>
+  </si>
+  <si>
+    <t>887.00</t>
+  </si>
+  <si>
+    <t>888.00</t>
+  </si>
+  <si>
+    <t>981.00</t>
+  </si>
+  <si>
+    <t>982.00</t>
+  </si>
+  <si>
+    <t>983.00</t>
+  </si>
+  <si>
+    <t>989.00</t>
+  </si>
+  <si>
+    <t>984.00</t>
+  </si>
+  <si>
+    <t>889.00</t>
+  </si>
+  <si>
+    <t>(*) Número único correlativo asignado a cada fideicomiso administrado, compuesto por la sigla de la entidad seguida de guion (-) y el número respectivo (Ej. BNB-001, BUN-025). 
+     Se deben incluir tantas columnas como fideicomisos se administren.</t>
+  </si>
+  <si>
+    <r>
+      <t>NOTA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> LOS FIRMANTES DECLARAMOS QUE LA INFORMACIÓN CONTENIDA EN EL PRESENTE ANEXO, FUE EXTRAIDA DE NUESTROS Y HA SIDO VERIFICADA EN CUANTO A SU EXACTITUD E INTEGRIDAD.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NOTA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> LOS FIRMANTES DECLARAMOS QUE LA INFORMACIÓN CONTENIDA EN EL PRESENTE REPORTE HA SIDO VERIFICADA EN CUANTO A SU EXACTITUD E INTEGRIDAD.</t>
+    </r>
+  </si>
+  <si>
     <t>(**) Se considera a los fondos de garantía de crédito para el sector productivo y de vivienda de interés social, a efectos de validar la integridad de la información financiera.</t>
   </si>
   <si>
-    <t>Fondo de 
-Garantía (FG)**</t>
-  </si>
-  <si>
-    <t>TOTAL***
-(1) + (2) + (3) + (4)  +(FG)+..+ (n)</t>
+    <r>
+      <t>(Nombre y Cargo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>_______________________________</t>
+  </si>
+  <si>
+    <t>________________________</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27A:</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27B:</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27C:</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27D:</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27E:</t>
+  </si>
+  <si>
+    <t>ANEXO 4.27F:</t>
+  </si>
+  <si>
+    <t>(1) Número único correlativo asignado a cada fideicomiso administrado por el cual se reporta al fideicomitente. Dicho código debe coincidir con el consignado en el Anexo 4.27A.</t>
+  </si>
+  <si>
+    <t>(6) En caso de que el fideicomitente corresponda a una Persona Jurídica reportada en el Anexo 4.27C, se deben llenar además todos los campos de "Persona Natural" por cada uno de sus Accionistas o Socios, Representantes Legales y Directores.</t>
+  </si>
+  <si>
+    <t>(2) La información contenida en estos campos, debe coincidir con la consignada en el Anexo 4.27B.</t>
+  </si>
+  <si>
+    <t>(1) Número único correlativo asignado a cada fideicomiso administrado por el cual se reporta al beneficiario. Dicho código debe coincidir con el consignado en el Anexo 4.27A.</t>
+  </si>
+  <si>
+    <t>(*) La información contenida en estos campos, debe coincidir con la consignada en el Anexo 4.27D.</t>
+  </si>
+  <si>
+    <t>(3) Importe de la variación del capital fiduciario con relación al semestre anterior.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +764,95 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -353,7 +868,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -419,15 +934,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -451,6 +957,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -458,7 +1023,7 @@
     <xf numFmtId="39" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -522,48 +1087,207 @@
     <xf numFmtId="39" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="39" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="39" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="39" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="39" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="39" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="39" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="39" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="39" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="25" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="25" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="39" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -586,7 +1310,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -878,7 +1602,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="22.5703125" style="1" customWidth="1"/>
@@ -926,20 +1650,20 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -2888,10 +3612,10 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="I61" s="50" t="s">
+      <c r="I61" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="J61" s="50"/>
+      <c r="J61" s="100"/>
       <c r="K61" s="11" t="s">
         <v>1</v>
       </c>
@@ -2963,1956 +3687,5054 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD68"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.140625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="3.7109375" style="1"/>
+    <col min="1" max="1" width="18" style="36" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="36" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="36" customWidth="1"/>
+    <col min="10" max="16384" width="3.7109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-    </row>
-    <row r="2" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:30" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:30" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="41"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>871</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>872</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>873</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>874</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>875</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>876</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>877</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>878</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>971</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>972</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>973</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
-        <v>978</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
-        <v>979</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>974</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-    </row>
-    <row r="31" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>879</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-    </row>
-    <row r="33" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-    </row>
-    <row r="34" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-    </row>
-    <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
-        <v>881</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-    </row>
-    <row r="38" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
-        <v>882</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-    </row>
-    <row r="39" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
-        <v>883</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-    </row>
-    <row r="40" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
-        <v>884</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-    </row>
-    <row r="41" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
-        <v>885</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-    </row>
-    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>886</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-    </row>
-    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>887</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
-        <v>888</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-    </row>
-    <row r="45" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
-        <v>981</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-    </row>
-    <row r="48" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>982</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-    </row>
-    <row r="49" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
-        <v>983</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-    </row>
-    <row r="50" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-    </row>
-    <row r="51" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35">
-        <v>989</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-    </row>
-    <row r="53" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-    </row>
-    <row r="54" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
-        <v>984</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-    </row>
-    <row r="55" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
-        <v>889</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-    </row>
-    <row r="56" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:26" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-    </row>
-    <row r="58" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" s="45" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="49"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="49"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="49"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-    </row>
-    <row r="60" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-    </row>
-    <row r="63" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="50" t="s">
+      <c r="B42" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="102"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="59"/>
+      <c r="B43" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="E43" s="102"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D60" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
-    <oddFooter>&amp;L&amp;"Times New Roman,Normal"Control de versiones
-Circular ASFI/464/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K000000Control de versiones
+Circular ASFI/608/2019 (úlima)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
-Anexo 4.27
+Anexo 4.27A
 Página &amp;P/1</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="67" max="12" man="1"/>
-  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T58"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="36"/>
+    <col min="3" max="3" width="14.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="36"/>
+    <col min="5" max="5" width="11.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="9" style="36" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="36"/>
+    <col min="9" max="9" width="12.140625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="36"/>
+    <col min="13" max="13" width="12.42578125" style="36" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="36" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="36"/>
+    <col min="16" max="16" width="9.28515625" style="36" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="36"/>
+    <col min="18" max="18" width="21.85546875" style="36" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="36" customWidth="1"/>
+    <col min="20" max="16384" width="10.7109375" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="Q3" s="35"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" s="111"/>
+    </row>
+    <row r="12" spans="1:19" s="63" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="106"/>
+      <c r="B12" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" s="62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="64"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="71"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="71"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="101"/>
+      <c r="E40" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="102"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+    </row>
+    <row r="41" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="59"/>
+      <c r="B41" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="E41" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="102"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="M41" s="41"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:Q11"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="53" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+    <oddFooter>&amp;L&amp;"Times New Roman,Cursiva"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
+Circular ASFI/536/2018 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+Título II
+Capítulo III
+Anexo 4.27B
+Página &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AL55"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="15" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="36" customWidth="1"/>
+    <col min="8" max="12" width="14.85546875" style="36" customWidth="1"/>
+    <col min="13" max="18" width="25.7109375" style="36" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="36" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="36" customWidth="1"/>
+    <col min="22" max="58" width="25.7109375" style="36" customWidth="1"/>
+    <col min="59" max="16384" width="3.7109375" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+    </row>
+    <row r="12" spans="1:38" s="45" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A30" s="66"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31" s="69"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A33" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A37" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="102"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+    </row>
+    <row r="38" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="59"/>
+      <c r="B38" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="102"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+    </row>
+    <row r="40" spans="1:34" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="88" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+    <oddFooter>&amp;L&amp;"Times New Roman,Cursiva"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
+Circular ASFI/536/2018 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+Título II
+Capítulo III
+Anexo 4.27C
+Página &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
+    </row>
+    <row r="12" spans="1:7" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="106"/>
+      <c r="B12" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="64"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="113"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="78"/>
+    </row>
+    <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="59"/>
+      <c r="B36" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="78"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+    </row>
+    <row r="38" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+    <oddFooter>&amp;L&amp;"Times New Roman,Cursiva"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
+Circular ASFI/536/2018 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+Título II
+Capítulo III
+Anexo 4.27D
+Página &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AL54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="15" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="33" style="36" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="36" customWidth="1"/>
+    <col min="8" max="12" width="14.85546875" style="36" customWidth="1"/>
+    <col min="13" max="18" width="25.7109375" style="36" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="36" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="36" customWidth="1"/>
+    <col min="22" max="58" width="25.7109375" style="36" customWidth="1"/>
+    <col min="59" max="16384" width="3.7109375" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+    </row>
+    <row r="9" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+    </row>
+    <row r="11" spans="1:38" s="45" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29" s="66"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A30" s="69"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="78"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="59"/>
+      <c r="B37" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="97"/>
+      <c r="D37" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="78"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A39:E39"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+    <oddFooter>&amp;L&amp;"Times New Roman,Cursiva"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
+Circular ASFI/536/2018 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+Título II
+Capítulo III
+Anexo 4.27E
+Página &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AL85"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="36" customWidth="1"/>
+    <col min="3" max="6" width="15" style="36" customWidth="1"/>
+    <col min="7" max="7" width="15" style="35" customWidth="1"/>
+    <col min="8" max="8" width="15" style="36" customWidth="1"/>
+    <col min="9" max="12" width="14.85546875" style="36" customWidth="1"/>
+    <col min="13" max="18" width="25.7109375" style="36" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="36" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="36" customWidth="1"/>
+    <col min="22" max="58" width="25.7109375" style="36" customWidth="1"/>
+    <col min="59" max="16384" width="3.7109375" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="86"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:38" s="45" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="88"/>
+      <c r="B13" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="91"/>
+      <c r="B14" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="91"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="91"/>
+      <c r="B24" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="91"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="91"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="91"/>
+      <c r="B32" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="93"/>
+      <c r="B35" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="93"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="121"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="88"/>
+      <c r="B38" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="91"/>
+      <c r="B39" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="91"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A49" s="91"/>
+      <c r="B49" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A50" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A53" s="91"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A54" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A55" s="91"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A56" s="91"/>
+      <c r="B56" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A57" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A58" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A59" s="93"/>
+      <c r="B59" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="118"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A61" s="95"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="H61" s="35"/>
+    </row>
+    <row r="62" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="122"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="35"/>
+      <c r="AF62" s="35"/>
+      <c r="AG62" s="35"/>
+      <c r="AH62" s="35"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A63" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="35"/>
+      <c r="AF63" s="35"/>
+      <c r="AG63" s="35"/>
+      <c r="AH63" s="35"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A64" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="124"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="102"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="59"/>
+      <c r="B68" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="102"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+    </row>
+    <row r="70" spans="1:15" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="116"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="116"/>
+      <c r="H70" s="116"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E85" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="F67:G67"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+    <oddFooter>&amp;L&amp;"Times New Roman,Cursiva"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
+Circular ASFI/536/2018 (inicial)
+&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+Título II
+Capítulo III
+Anexo 4.27F
+Página &amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>